--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Microalbuminuria.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Microalbuminuria.xlsx
@@ -466,7 +466,7 @@
         <v>20.52213886235047</v>
       </c>
       <c r="B3" t="n">
-        <v>17.23670022454986</v>
+        <v>17.23670022454987</v>
       </c>
       <c r="C3" t="n">
         <v>23.83864465706581</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.173246856270206</v>
+        <v>2.173246856270204</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5325970740738875</v>
+        <v>0.5325970740738857</v>
       </c>
       <c r="C8" t="n">
         <v>4.344565552886344</v>
@@ -540,21 +540,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.728238049295921</v>
+        <v>2.72823804929592</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9333138105177685</v>
+        <v>0.9333138105177667</v>
       </c>
       <c r="C10" t="n">
-        <v>5.120842126721815</v>
+        <v>5.120842126721817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.70840791145653</v>
+        <v>10.70840791145652</v>
       </c>
       <c r="B11" t="n">
-        <v>7.979591313897154</v>
+        <v>7.979591313897153</v>
       </c>
       <c r="C11" t="n">
         <v>13.98478159105254</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.671192388584295</v>
+        <v>6.671192388584292</v>
       </c>
       <c r="B13" t="n">
-        <v>4.195297532496271</v>
+        <v>4.19529753249627</v>
       </c>
       <c r="C13" t="n">
         <v>9.888056396439623</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.412304553507552</v>
+        <v>8.41230455350755</v>
       </c>
       <c r="B14" t="n">
         <v>5.887086054974771</v>
@@ -601,7 +601,7 @@
         <v>18.80036107479476</v>
       </c>
       <c r="C15" t="n">
-        <v>26.94601134919233</v>
+        <v>26.94601134919234</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.42606541899283</v>
+        <v>20.42606541899284</v>
       </c>
       <c r="B21" t="n">
         <v>16.71112299049993</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.279604722774089</v>
+        <v>3.279604722774085</v>
       </c>
       <c r="B22" t="n">
-        <v>1.327496197706546</v>
+        <v>1.327496197706544</v>
       </c>
       <c r="C22" t="n">
         <v>5.897495433354727</v>
@@ -697,7 +697,7 @@
         <v>17.5858444266608</v>
       </c>
       <c r="B24" t="n">
-        <v>14.23750404289898</v>
+        <v>14.23750404289899</v>
       </c>
       <c r="C24" t="n">
         <v>21.29541444211744</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20.41881637989773</v>
+        <v>20.41881637989774</v>
       </c>
       <c r="B26" t="n">
         <v>16.69805429198972</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.766676696445527</v>
+        <v>7.766676696445526</v>
       </c>
       <c r="B27" t="n">
-        <v>4.970593608363615</v>
+        <v>4.970593608363614</v>
       </c>
       <c r="C27" t="n">
         <v>11.44211647530032</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15.83567096286866</v>
+        <v>15.83567096286867</v>
       </c>
       <c r="B30" t="n">
         <v>12.52937964728272</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.024341407244895</v>
+        <v>5.024341407244893</v>
       </c>
       <c r="B32" t="n">
-        <v>3.025819069440152</v>
+        <v>3.02581906944015</v>
       </c>
       <c r="C32" t="n">
         <v>7.55734301094601</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.414116813281327</v>
+        <v>8.414116813281325</v>
       </c>
       <c r="B33" t="n">
-        <v>5.890353229602324</v>
+        <v>5.890353229602323</v>
       </c>
       <c r="C33" t="n">
-        <v>11.54809234042963</v>
+        <v>11.54809234042962</v>
       </c>
     </row>
     <row r="34">
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.057932410569576</v>
+        <v>9.057932410569574</v>
       </c>
       <c r="B44" t="n">
-        <v>6.803578501585928</v>
+        <v>6.803578501585927</v>
       </c>
       <c r="C44" t="n">
         <v>11.65444493835636</v>
@@ -928,7 +928,7 @@
         <v>12.34800985370082</v>
       </c>
       <c r="B45" t="n">
-        <v>9.136001078443062</v>
+        <v>9.136001078443064</v>
       </c>
       <c r="C45" t="n">
         <v>16.31624844214103</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.307758946777444</v>
+        <v>7.307758946777443</v>
       </c>
       <c r="B46" t="n">
-        <v>5.095454105969665</v>
+        <v>5.095454105969664</v>
       </c>
       <c r="C46" t="n">
         <v>9.995162459961241</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.823722357157155</v>
+        <v>3.823722357157154</v>
       </c>
       <c r="B47" t="n">
-        <v>1.708609886385112</v>
+        <v>1.708609886385111</v>
       </c>
       <c r="C47" t="n">
         <v>6.674902205582518</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.765453572168152</v>
+        <v>6.76545357216815</v>
       </c>
       <c r="B52" t="n">
-        <v>4.717607591918651</v>
+        <v>4.71760759191865</v>
       </c>
       <c r="C52" t="n">
         <v>9.217567321334732</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.86637465935071</v>
+        <v>7.866374659350709</v>
       </c>
       <c r="B56" t="n">
-        <v>5.502705191668652</v>
+        <v>5.502705191668651</v>
       </c>
       <c r="C56" t="n">
         <v>10.77106230099928</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.02252914747112</v>
+        <v>5.022529147471118</v>
       </c>
       <c r="B57" t="n">
-        <v>3.022551894812599</v>
+        <v>3.022551894812597</v>
       </c>
       <c r="C57" t="n">
         <v>7.557531377344731</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20.9701830533759</v>
+        <v>20.97018305337591</v>
       </c>
       <c r="B58" t="n">
         <v>17.0922366791785</v>
@@ -1082,7 +1082,7 @@
         <v>10.15160445865703</v>
       </c>
       <c r="B59" t="n">
-        <v>7.575607402825719</v>
+        <v>7.575607402825718</v>
       </c>
       <c r="C59" t="n">
         <v>13.20869338361578</v>
@@ -1093,10 +1093,10 @@
         <v>23.26809867109865</v>
       </c>
       <c r="B60" t="n">
-        <v>19.18800911272843</v>
+        <v>19.18800911272844</v>
       </c>
       <c r="C60" t="n">
-        <v>27.72304138862268</v>
+        <v>27.72304138862269</v>
       </c>
     </row>
     <row r="61">
@@ -1115,7 +1115,7 @@
         <v>10.70659565168275</v>
       </c>
       <c r="B62" t="n">
-        <v>7.976324139269601</v>
+        <v>7.9763241392696</v>
       </c>
       <c r="C62" t="n">
         <v>13.98496995745126</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.06096779462073</v>
+        <v>10.06096779462072</v>
       </c>
       <c r="B63" t="n">
         <v>7.059831692658443</v>
@@ -1140,15 +1140,15 @@
         <v>19.18474193810088</v>
       </c>
       <c r="C64" t="n">
-        <v>27.7232297550214</v>
+        <v>27.72322975502141</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.471162473992955</v>
+        <v>4.471162473992951</v>
       </c>
       <c r="B65" t="n">
-        <v>2.628369507623821</v>
+        <v>2.62836950762382</v>
       </c>
       <c r="C65" t="n">
         <v>6.780878070711818</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.829159136478479</v>
+        <v>3.829159136478477</v>
       </c>
       <c r="B69" t="n">
-        <v>1.71841141026777</v>
+        <v>1.718411410267769</v>
       </c>
       <c r="C69" t="n">
         <v>6.674337106386359</v>
